--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H2">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I2">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J2">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N2">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P2">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q2">
-        <v>31.56755694408777</v>
+        <v>255.7425364632681</v>
       </c>
       <c r="R2">
-        <v>284.10801249679</v>
+        <v>2301.682828169412</v>
       </c>
       <c r="S2">
-        <v>0.001698728566736057</v>
+        <v>0.01009104367099117</v>
       </c>
       <c r="T2">
-        <v>0.001698728566736057</v>
+        <v>0.01009104367099117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H3">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I3">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J3">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>259.31276</v>
       </c>
       <c r="O3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P3">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q3">
-        <v>111.6735010944622</v>
+        <v>546.6862723851201</v>
       </c>
       <c r="R3">
-        <v>1005.06150985016</v>
+        <v>4920.176451466081</v>
       </c>
       <c r="S3">
-        <v>0.006009428185798283</v>
+        <v>0.02157105003047456</v>
       </c>
       <c r="T3">
-        <v>0.006009428185798282</v>
+        <v>0.02157105003047456</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H4">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I4">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J4">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N4">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P4">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q4">
-        <v>43.67132962933911</v>
+        <v>351.8442525898481</v>
       </c>
       <c r="R4">
-        <v>393.041966664052</v>
+        <v>3166.598273308633</v>
       </c>
       <c r="S4">
-        <v>0.002350062607635503</v>
+        <v>0.01388300815097826</v>
       </c>
       <c r="T4">
-        <v>0.002350062607635503</v>
+        <v>0.01388300815097825</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H5">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I5">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J5">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N5">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P5">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q5">
-        <v>11.60847103194178</v>
+        <v>51.02575496238401</v>
       </c>
       <c r="R5">
-        <v>104.476239287476</v>
+        <v>459.2317946614561</v>
       </c>
       <c r="S5">
-        <v>0.0006246806299586244</v>
+        <v>0.002013365194509464</v>
       </c>
       <c r="T5">
-        <v>0.0006246806299586243</v>
+        <v>0.002013365194509464</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H6">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I6">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J6">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N6">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P6">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q6">
-        <v>32.775772469884</v>
+        <v>193.595999040488</v>
       </c>
       <c r="R6">
-        <v>294.981952228956</v>
+        <v>1742.363991364392</v>
       </c>
       <c r="S6">
-        <v>0.001763745642085896</v>
+        <v>0.007638876613422968</v>
       </c>
       <c r="T6">
-        <v>0.001763745642085896</v>
+        <v>0.007638876613422967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.291955333333333</v>
+        <v>6.324636000000001</v>
       </c>
       <c r="H7">
-        <v>3.875866</v>
+        <v>18.973908</v>
       </c>
       <c r="I7">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393145</v>
       </c>
       <c r="J7">
-        <v>0.01418569913945242</v>
+        <v>0.06493363896393144</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N7">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P7">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q7">
-        <v>32.31691730717956</v>
+        <v>246.751965195092</v>
       </c>
       <c r="R7">
-        <v>290.852255764616</v>
+        <v>2220.767686755828</v>
       </c>
       <c r="S7">
-        <v>0.001739053507238054</v>
+        <v>0.009736295303555024</v>
       </c>
       <c r="T7">
-        <v>0.001739053507238054</v>
+        <v>0.009736295303555022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>156.515103</v>
       </c>
       <c r="I8">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J8">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N8">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P8">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q8">
-        <v>1274.760124979105</v>
+        <v>2109.611232226363</v>
       </c>
       <c r="R8">
-        <v>11472.84112481194</v>
+        <v>18986.50109003727</v>
       </c>
       <c r="S8">
-        <v>0.06859800534686608</v>
+        <v>0.08324066605270146</v>
       </c>
       <c r="T8">
-        <v>0.06859800534686608</v>
+        <v>0.08324066605270145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>156.515103</v>
       </c>
       <c r="I9">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J9">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>259.31276</v>
       </c>
       <c r="O9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P9">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q9">
         <v>4509.595926734921</v>
@@ -1013,10 +1013,10 @@
         <v>40586.36334061428</v>
       </c>
       <c r="S9">
-        <v>0.2426725463345022</v>
+        <v>0.1779388367086991</v>
       </c>
       <c r="T9">
-        <v>0.2426725463345021</v>
+        <v>0.1779388367086991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>156.515103</v>
       </c>
       <c r="I10">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J10">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N10">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P10">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q10">
-        <v>1763.534305644974</v>
+        <v>2902.350924968018</v>
       </c>
       <c r="R10">
-        <v>15871.80875080477</v>
+        <v>26121.15832471216</v>
       </c>
       <c r="S10">
-        <v>0.09490015678832017</v>
+        <v>0.1145204483283149</v>
       </c>
       <c r="T10">
-        <v>0.09490015678832017</v>
+        <v>0.1145204483283149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>156.515103</v>
       </c>
       <c r="I11">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J11">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N11">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P11">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q11">
-        <v>468.7729243572621</v>
+        <v>420.9096667692441</v>
       </c>
       <c r="R11">
-        <v>4218.956319215358</v>
+        <v>3788.187000923197</v>
       </c>
       <c r="S11">
-        <v>0.02522583421100704</v>
+        <v>0.01660817902117285</v>
       </c>
       <c r="T11">
-        <v>0.02522583421100703</v>
+        <v>0.01660817902117285</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>156.515103</v>
       </c>
       <c r="I12">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J12">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N12">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P12">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q12">
-        <v>1323.550247616522</v>
+        <v>1596.966620171758</v>
       </c>
       <c r="R12">
-        <v>11911.9522285487</v>
+        <v>14372.69958154582</v>
       </c>
       <c r="S12">
-        <v>0.0712235229073645</v>
+        <v>0.06301282582134303</v>
       </c>
       <c r="T12">
-        <v>0.07122352290736449</v>
+        <v>0.06301282582134302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>156.515103</v>
       </c>
       <c r="I13">
-        <v>0.5728464714565485</v>
+        <v>0.5356353151182426</v>
       </c>
       <c r="J13">
-        <v>0.5728464714565484</v>
+        <v>0.5356353151182425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N13">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P13">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q13">
-        <v>1305.020772383692</v>
+        <v>2035.448324507647</v>
       </c>
       <c r="R13">
-        <v>11745.18695145323</v>
+        <v>18319.03492056882</v>
       </c>
       <c r="S13">
-        <v>0.07022640586848855</v>
+        <v>0.08031435918601117</v>
       </c>
       <c r="T13">
-        <v>0.07022640586848855</v>
+        <v>0.08031435918601115</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H14">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I14">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J14">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N14">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P14">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q14">
-        <v>87.54452869206833</v>
+        <v>242.7987931973197</v>
       </c>
       <c r="R14">
-        <v>787.9007582286149</v>
+        <v>2185.189138775877</v>
       </c>
       <c r="S14">
-        <v>0.00471098831037393</v>
+        <v>0.009580311743603942</v>
       </c>
       <c r="T14">
-        <v>0.00471098831037393</v>
+        <v>0.00958031174360394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H15">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I15">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J15">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>259.31276</v>
       </c>
       <c r="O15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P15">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q15">
-        <v>309.6978343311067</v>
+        <v>519.0171687051867</v>
       </c>
       <c r="R15">
-        <v>2787.28050897996</v>
+        <v>4671.154518346681</v>
       </c>
       <c r="S15">
-        <v>0.01666560890873985</v>
+        <v>0.02047928744208132</v>
       </c>
       <c r="T15">
-        <v>0.01666560890873985</v>
+        <v>0.02047928744208132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H16">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I16">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J16">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N16">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P16">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q16">
-        <v>121.1112401421513</v>
+        <v>334.0365709342914</v>
       </c>
       <c r="R16">
-        <v>1090.001161279362</v>
+        <v>3006.329138408622</v>
       </c>
       <c r="S16">
-        <v>0.006517296341516061</v>
+        <v>0.01318035580479281</v>
       </c>
       <c r="T16">
-        <v>0.006517296341516061</v>
+        <v>0.01318035580479281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H17">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I17">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J17">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N17">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P17">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q17">
-        <v>32.19311925616734</v>
+        <v>48.44321909909733</v>
       </c>
       <c r="R17">
-        <v>289.738073305506</v>
+        <v>435.9889718918761</v>
       </c>
       <c r="S17">
-        <v>0.001732391626936921</v>
+        <v>0.001911463952194735</v>
       </c>
       <c r="T17">
-        <v>0.00173239162693692</v>
+        <v>0.001911463952194736</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H18">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I18">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J18">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N18">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P18">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q18">
-        <v>90.895204797654</v>
+        <v>183.7976411155647</v>
       </c>
       <c r="R18">
-        <v>818.056843178886</v>
+        <v>1654.178770040082</v>
       </c>
       <c r="S18">
-        <v>0.004891296505541511</v>
+        <v>0.007252254743272691</v>
       </c>
       <c r="T18">
-        <v>0.00489129650554151</v>
+        <v>0.00725225474327269</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.582907</v>
+        <v>6.004531</v>
       </c>
       <c r="H19">
-        <v>10.748721</v>
+        <v>18.013593</v>
       </c>
       <c r="I19">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="J19">
-        <v>0.03934040089103032</v>
+        <v>0.06164719172798785</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N19">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P19">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q19">
-        <v>89.62268760451067</v>
+        <v>234.2632563083236</v>
       </c>
       <c r="R19">
-        <v>806.604188440596</v>
+        <v>2108.369306774913</v>
       </c>
       <c r="S19">
-        <v>0.004822819197922043</v>
+        <v>0.009243518042042346</v>
       </c>
       <c r="T19">
-        <v>0.004822819197922043</v>
+        <v>0.009243518042042346</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H20">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I20">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J20">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N20">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P20">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q20">
-        <v>608.822013368366</v>
+        <v>839.4929371878087</v>
       </c>
       <c r="R20">
-        <v>5479.398120315294</v>
+        <v>7555.436434690278</v>
       </c>
       <c r="S20">
-        <v>0.03276222319004331</v>
+        <v>0.03312456350751629</v>
       </c>
       <c r="T20">
-        <v>0.03276222319004331</v>
+        <v>0.03312456350751628</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H21">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I21">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J21">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>259.31276</v>
       </c>
       <c r="O21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P21">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q21">
-        <v>2153.770907791409</v>
+        <v>1794.536297604742</v>
       </c>
       <c r="R21">
-        <v>19383.93817012268</v>
+        <v>16150.82667844268</v>
       </c>
       <c r="S21">
-        <v>0.115899756631485</v>
+        <v>0.07080849513240513</v>
       </c>
       <c r="T21">
-        <v>0.115899756631485</v>
+        <v>0.07080849513240513</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H22">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I22">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J22">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N22">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P22">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q22">
-        <v>842.2592498526384</v>
+        <v>1154.953607343002</v>
       </c>
       <c r="R22">
-        <v>7580.333248673746</v>
+        <v>10394.58246608702</v>
       </c>
       <c r="S22">
-        <v>0.04532406010564987</v>
+        <v>0.04557195471212108</v>
       </c>
       <c r="T22">
-        <v>0.04532406010564988</v>
+        <v>0.04557195471212107</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H23">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I23">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J23">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N23">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P23">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q23">
-        <v>223.8846901682331</v>
+        <v>167.4956442443418</v>
       </c>
       <c r="R23">
-        <v>2014.962211514098</v>
+        <v>1507.460798199076</v>
       </c>
       <c r="S23">
-        <v>0.01204779069591124</v>
+        <v>0.006609013440410666</v>
       </c>
       <c r="T23">
-        <v>0.01204779069591124</v>
+        <v>0.006609013440410667</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H24">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I24">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J24">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N24">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P24">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q24">
-        <v>632.124044954182</v>
+        <v>635.4925391367202</v>
       </c>
       <c r="R24">
-        <v>5689.116404587638</v>
+        <v>5719.432852230482</v>
       </c>
       <c r="S24">
-        <v>0.03401616332826567</v>
+        <v>0.0250751519622109</v>
       </c>
       <c r="T24">
-        <v>0.03401616332826567</v>
+        <v>0.02507515196221089</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.91706433333333</v>
+        <v>20.76106433333333</v>
       </c>
       <c r="H25">
-        <v>74.751193</v>
+        <v>62.283193</v>
       </c>
       <c r="I25">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="J25">
-        <v>0.2735899368587927</v>
+        <v>0.2131492556927577</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N25">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P25">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q25">
-        <v>623.2744173286742</v>
+        <v>809.9807520609459</v>
       </c>
       <c r="R25">
-        <v>5609.469755958068</v>
+        <v>7289.826768548513</v>
       </c>
       <c r="S25">
-        <v>0.03353994290743762</v>
+        <v>0.03196007693809367</v>
       </c>
       <c r="T25">
-        <v>0.03353994290743763</v>
+        <v>0.03196007693809367</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H26">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I26">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J26">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N26">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P26">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q26">
-        <v>166.4438413230366</v>
+        <v>287.3071466485054</v>
       </c>
       <c r="R26">
-        <v>1497.99457190733</v>
+        <v>2585.764319836549</v>
       </c>
       <c r="S26">
-        <v>0.008956756093400511</v>
+        <v>0.01133651446455542</v>
       </c>
       <c r="T26">
-        <v>0.008956756093400511</v>
+        <v>0.01133651446455542</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H27">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I27">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J27">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>259.31276</v>
       </c>
       <c r="O27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P27">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q27">
-        <v>588.8123217478134</v>
+        <v>614.1601440378134</v>
       </c>
       <c r="R27">
-        <v>5299.31089573032</v>
+        <v>5527.441296340321</v>
       </c>
       <c r="S27">
-        <v>0.03168545203453018</v>
+        <v>0.02423342209776644</v>
       </c>
       <c r="T27">
-        <v>0.03168545203453017</v>
+        <v>0.02423342209776644</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H28">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I28">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J28">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N28">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P28">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q28">
-        <v>230.2624771396226</v>
+        <v>395.2700621266587</v>
       </c>
       <c r="R28">
-        <v>2072.362294256604</v>
+        <v>3557.430559139928</v>
       </c>
       <c r="S28">
-        <v>0.01239099523784161</v>
+        <v>0.01559649604604744</v>
       </c>
       <c r="T28">
-        <v>0.01239099523784161</v>
+        <v>0.01559649604604744</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H29">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I29">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J29">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N29">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P29">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q29">
-        <v>61.20709669949466</v>
+        <v>57.32352649100267</v>
       </c>
       <c r="R29">
-        <v>550.863870295452</v>
+        <v>515.9117384190241</v>
       </c>
       <c r="S29">
-        <v>0.003293705744621488</v>
+        <v>0.002261861547146302</v>
       </c>
       <c r="T29">
-        <v>0.003293705744621487</v>
+        <v>0.002261861547146302</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H30">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I30">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J30">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N30">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P30">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q30">
-        <v>172.814306849268</v>
+        <v>217.4902730538853</v>
       </c>
       <c r="R30">
-        <v>1555.328761643412</v>
+        <v>1957.412457484968</v>
       </c>
       <c r="S30">
-        <v>0.009299566650200449</v>
+        <v>0.008581692641958186</v>
       </c>
       <c r="T30">
-        <v>0.009299566650200448</v>
+        <v>0.008581692641958186</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>6.811993999999999</v>
+        <v>7.105244</v>
       </c>
       <c r="H31">
-        <v>20.435982</v>
+        <v>21.315732</v>
       </c>
       <c r="I31">
-        <v>0.07479585008131476</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="J31">
-        <v>0.07479585008131474</v>
+        <v>0.07294796864936418</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N31">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P31">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q31">
-        <v>170.3949363535813</v>
+        <v>277.2069286186013</v>
       </c>
       <c r="R31">
-        <v>1533.554427182232</v>
+        <v>2494.862357567412</v>
       </c>
       <c r="S31">
-        <v>0.009169374320720514</v>
+        <v>0.01093798185189037</v>
       </c>
       <c r="T31">
-        <v>0.009169374320720512</v>
+        <v>0.01093798185189037</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H32">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I32">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J32">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>24.43393833333333</v>
+        <v>40.43592966666667</v>
       </c>
       <c r="N32">
-        <v>73.30181499999999</v>
+        <v>121.307789</v>
       </c>
       <c r="O32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="P32">
-        <v>0.1197493722400791</v>
+        <v>0.1554054852307972</v>
       </c>
       <c r="Q32">
-        <v>56.17043967170388</v>
+        <v>203.568905568891</v>
       </c>
       <c r="R32">
-        <v>505.5339570453349</v>
+        <v>1832.120150120019</v>
       </c>
       <c r="S32">
-        <v>0.003022670732659229</v>
+        <v>0.008032385791428957</v>
       </c>
       <c r="T32">
-        <v>0.003022670732659229</v>
+        <v>0.008032385791428957</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H33">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I33">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J33">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>259.31276</v>
       </c>
       <c r="O33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="P33">
-        <v>0.4236258027695808</v>
+        <v>0.3322014655986951</v>
       </c>
       <c r="Q33">
-        <v>198.7087460478711</v>
+        <v>435.15766949844</v>
       </c>
       <c r="R33">
-        <v>1788.37871443084</v>
+        <v>3916.41902548596</v>
       </c>
       <c r="S33">
-        <v>0.01069301067452541</v>
+        <v>0.01717037418726861</v>
       </c>
       <c r="T33">
-        <v>0.01069301067452541</v>
+        <v>0.01717037418726861</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H34">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I34">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J34">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>33.80250733333333</v>
+        <v>55.63075133333334</v>
       </c>
       <c r="N34">
-        <v>101.407522</v>
+        <v>166.892254</v>
       </c>
       <c r="O34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="P34">
-        <v>0.1656642076314483</v>
+        <v>0.2138030206298745</v>
       </c>
       <c r="Q34">
-        <v>77.70755876587755</v>
+        <v>280.065062390226</v>
       </c>
       <c r="R34">
-        <v>699.368028892898</v>
+        <v>2520.585561512034</v>
       </c>
       <c r="S34">
-        <v>0.004181636550485098</v>
+        <v>0.01105075758761997</v>
       </c>
       <c r="T34">
-        <v>0.004181636550485099</v>
+        <v>0.01105075758761997</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H35">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I35">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J35">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.985195333333333</v>
+        <v>8.067777333333334</v>
       </c>
       <c r="N35">
-        <v>26.955586</v>
+        <v>24.203332</v>
       </c>
       <c r="O35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691211</v>
       </c>
       <c r="P35">
-        <v>0.04403594238237437</v>
+        <v>0.03100650489691212</v>
       </c>
       <c r="Q35">
-        <v>20.65579300087489</v>
+        <v>40.616071292508</v>
       </c>
       <c r="R35">
-        <v>185.902137007874</v>
+        <v>365.5446416325721</v>
       </c>
       <c r="S35">
-        <v>0.001111539473939068</v>
+        <v>0.001602621741478099</v>
       </c>
       <c r="T35">
-        <v>0.001111539473939068</v>
+        <v>0.001602621741478099</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H36">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I36">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J36">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.369122</v>
+        <v>30.60982466666667</v>
       </c>
       <c r="N36">
-        <v>76.107366</v>
+        <v>91.829474</v>
       </c>
       <c r="O36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="P36">
-        <v>0.1243326553557499</v>
+        <v>0.1176412832440535</v>
       </c>
       <c r="Q36">
-        <v>58.320305035766</v>
+        <v>154.100785079406</v>
       </c>
       <c r="R36">
-        <v>524.8827453218939</v>
+        <v>1386.907065714654</v>
       </c>
       <c r="S36">
-        <v>0.003138360322291939</v>
+        <v>0.006080481461845742</v>
       </c>
       <c r="T36">
-        <v>0.003138360322291939</v>
+        <v>0.006080481461845741</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.298869666666667</v>
+        <v>5.034357</v>
       </c>
       <c r="H37">
-        <v>6.896609</v>
+        <v>15.103071</v>
       </c>
       <c r="I37">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771629</v>
       </c>
       <c r="J37">
-        <v>0.02524164157286134</v>
+        <v>0.05168662984771628</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.01395866666667</v>
+        <v>39.01441366666666</v>
       </c>
       <c r="N37">
-        <v>75.041876</v>
+        <v>117.043241</v>
       </c>
       <c r="O37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="P37">
-        <v>0.1225920196207674</v>
+        <v>0.1499422403996675</v>
       </c>
       <c r="Q37">
-        <v>57.50383082205378</v>
+        <v>196.412486543679</v>
       </c>
       <c r="R37">
-        <v>517.534477398484</v>
+        <v>1767.712378893111</v>
       </c>
       <c r="S37">
-        <v>0.003094423818960595</v>
+        <v>0.007750009078074904</v>
       </c>
       <c r="T37">
-        <v>0.003094423818960595</v>
+        <v>0.007750009078074903</v>
       </c>
     </row>
   </sheetData>
